--- a/biology/Botanique/Mélèze_de_Sibérie/Mélèze_de_Sibérie.xlsx
+++ b/biology/Botanique/Mélèze_de_Sibérie/Mélèze_de_Sibérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A8ze_de_Sib%C3%A9rie</t>
+          <t>Mélèze_de_Sibérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larix sibirica
 Le mélèze de Sibérie, ou mélèze russe (Larix sibirica) est une espèce d'arbre du genre Larix et de la famille des Pinaceae. C'est un arbre particulièrement résistant au froid : son domaine naturel se situe en Russie occidentale, depuis la frontière avec la Finlande, à l'ouest, jusqu'à la vallée de l'Ienisseï, à l'est. Dans cette dernière région, il peut s'hybrider avec le mélèze de Dahurie (Larix gmelinii) qui pousse en Sibérie orientale : l'hybride est connu sous l'appellation Larix × czekanowskii.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A8ze_de_Sib%C3%A9rie</t>
+          <t>Mélèze_de_Sibérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Construction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à sa dureté ainsi qu'à sa durabilité, le bois de mélèze est approprié à la construction. Il sert par exemple à faire des charpentes, des ouvrages extérieurs, ainsi que des menuiseries intérieures et extérieures.
 C'est également un bois qui est extrêmement apprécié pour les bardages extérieurs, les articles de pontage et les articles à vocation marine. 
